--- a/Exploration Scripts/Training Schedule.xlsx
+++ b/Exploration Scripts/Training Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t xml:space="preserve">Day </t>
   </si>
@@ -746,7 +746,9 @@
       <c r="D8" s="6">
         <v>43381</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -760,7 +762,9 @@
       <c r="D9" s="6">
         <v>43382</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="10" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Exploration Scripts/Training Schedule.xlsx
+++ b/Exploration Scripts/Training Schedule.xlsx
@@ -600,7 +600,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,8 +762,8 @@
       <c r="D9" s="6">
         <v>43382</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
+      <c r="E9" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="7"/>
     </row>

--- a/Exploration Scripts/Training Schedule.xlsx
+++ b/Exploration Scripts/Training Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
   <si>
     <t xml:space="preserve">Day </t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>To connect with SQL, Access</t>
+  </si>
+  <si>
+    <t>Need Installation for further</t>
   </si>
 </sst>
 </file>
@@ -167,7 +170,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,12 +195,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -293,8 +290,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -600,7 +597,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +607,7 @@
     <col min="3" max="3" width="61.140625" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -714,8 +711,8 @@
       <c r="D6" s="6">
         <v>43377</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>37</v>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="7"/>
     </row>
@@ -732,8 +729,12 @@
       <c r="D7" s="6">
         <v>43378</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">

--- a/Exploration Scripts/Training Schedule.xlsx
+++ b/Exploration Scripts/Training Schedule.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="21075" windowHeight="10035"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20730" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t xml:space="preserve">Day </t>
   </si>
@@ -129,13 +129,7 @@
     <t>Develop .Net application that will invoke power shell commands</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>To connect with SQL, Access</t>
-  </si>
-  <si>
-    <t>Need Installation for further</t>
   </si>
 </sst>
 </file>
@@ -170,7 +164,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +183,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -260,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -285,9 +273,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,7 +582,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,17 +709,15 @@
         <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" s="6">
         <v>43378</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -781,7 +764,9 @@
       <c r="D10" s="6">
         <v>43383</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -797,7 +782,9 @@
       <c r="D11" s="6">
         <v>43384</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
